--- a/artigos_filtrados_3.xlsx
+++ b/artigos_filtrados_3.xlsx
@@ -476,7 +476,7 @@
         <v>2020</v>
       </c>
       <c r="E2" t="n">
-        <v>45.68504832291075</v>
+        <v>37.40436488474742</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>2021</v>
       </c>
       <c r="E3" t="n">
-        <v>42.2740193291643</v>
+        <v>34.46174595389897</v>
       </c>
     </row>
     <row r="4">
@@ -514,254 +514,254 @@
         <v>2020</v>
       </c>
       <c r="E4" t="n">
-        <v>42.2740193291643</v>
+        <v>34.46174595389897</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Assessing the potential for deep learning and computer vision to identify bumble bee species from images</t>
+          <t>Chronic within-hive video recordings detect altered nursing behaviour and retarded larval development of neonicotinoid treated honey bees</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E5" t="n">
-        <v>41.98976691301876</v>
+        <v>34.46174595389897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>378</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Application of Digital Particle Image Velocimetry to Insect Motion: Measurement of Incoming, Outgoing, and Lateral Honeybee Traffic</t>
+          <t>Summer weather conditions influence winter survival of honey bees (Apis mellifera) in the northeastern United States</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E6" t="n">
-        <v>40.85275724843661</v>
+        <v>34.46174595389897</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The prediction of swarming in honeybee colonies using vibrational spectra</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Artificial Bee Colony Optimization Algorithm Incorporated With Fuzzy Theory for Real-Time Machine Learning Control of Articulated Robotic Manipulators</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
       <c r="D7" t="n">
         <v>2020</v>
       </c>
       <c r="E7" t="n">
-        <v>40.85275724843661</v>
+        <v>34.46174595389897</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Visual Diagnosis of the Varroa Destructor Parasitic Mite in Honeybees Using Object Detector Techniques</t>
+          <t>Assessing the potential for deep learning and computer vision to identify bumble bee species from images</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>2021</v>
       </c>
       <c r="E8" t="n">
-        <v>40.85275724843661</v>
+        <v>34.2165277096616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>A hybrid model based on the convolutional neural network model and artificial bee colony or particle swarm optimization-based iterative thresholding for the detection of bruised apples</t>
+          <t>System design for inferring colony-level pollination activity through miniature bee-mounted sensors</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E9" t="n">
-        <v>40.56850483229107</v>
+        <v>33.48087297694948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Automatic Data Clustering Based Mean Best Artificial Bee Colony Algorithm</t>
+          <t>Artificial Bee Colony Optimization Algorithm Incorporated With Fuzzy Theory for Real-Time Machine Learning Control of Articulated Robotic Manipulators</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E10" t="n">
-        <v>40.56850483229107</v>
+        <v>33.23565473271211</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Detection of bee diseases with a hybrid deep learning method</t>
+          <t>Application of Digital Particle Image Velocimetry to Insect Motion: Measurement of Incoming, Outgoing, and Lateral Honeybee Traffic</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E11" t="n">
-        <v>40.56850483229107</v>
+        <v>33.23565473271211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Audio, Image, Video, and Weather Datasets for Continuous Electronic Beehive Monitoring</t>
+          <t>Visual Diagnosis of the Varroa Destructor Parasitic Mite in Honeybees Using Object Detector Techniques</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>2021</v>
       </c>
       <c r="E12" t="n">
-        <v>40.28425241614553</v>
+        <v>33.23565473271211</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>29</v>
+        <v>320</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Artificial Neural Networks Hidden Unit and Weight Connection Optimization by Quasi-Refection-Based Learning Artificial Bee Colony Algorithm</t>
+          <t>Cross Lingual Sentiment Analysis: A Clustering-Based Bee Colony Instance Selection and Target-Based Feature Weighting Approach</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E13" t="n">
-        <v>40.28425241614553</v>
+        <v>32.99043648847474</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A survey on the studies employing machine learning (ML) for enhancing artificial bee colony (ABC) optimization algorithm</t>
+          <t>Detection of bee diseases with a hybrid deep learning method</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E14" t="n">
-        <v>40.28425241614553</v>
+        <v>32.99043648847474</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Real-time monitoring of deformed wing virus-infected bee foraging behavior following histone deacetylase inhibitor treatment</t>
+          <t>Automatic Data Clustering Based Mean Best Artificial Bee Colony Algorithm</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>2021</v>
       </c>
       <c r="E15" t="n">
-        <v>40.28425241614553</v>
+        <v>32.99043648847474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>276</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>An Optimized Neuro-Bee Algorithm Approach to Predict the FRP-Concrete Bond Strength of RC Beams</t>
+          <t>BeePIV: A Method to Measure Apis Mellifera Traffic with Particle Image Velocimetry in Videos</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E16" t="n">
-        <v>40.28425241614553</v>
+        <v>32.99043648847474</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Self-Powered Smart Beehive Monitoring and Control System (SBMaCS)</t>
+          <t>A hybrid model based on the convolutional neural network model and artificial bee colony or particle swarm optimization-based iterative thresholding for the detection of bruised apples</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E17" t="n">
-        <v>40.28425241614553</v>
+        <v>32.99043648847474</v>
       </c>
     </row>
     <row r="18">
@@ -780,121 +780,121 @@
         <v>2021</v>
       </c>
       <c r="E18" t="n">
-        <v>40.28425241614553</v>
+        <v>32.74521824423737</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Honey bees increase their foraging performance and frequency of pollen trips through experience</t>
+          <t>An Optimized Neuro-Bee Algorithm Approach to Predict the FRP-Concrete Bond Strength of RC Beams</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E19" t="n">
-        <v>40.11654349061967</v>
+        <v>32.74521824423737</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AlexNet, AdaBoost and Artificial Bee Colony Based Hybrid Model for Electricity Theft Detection in Smart Grids</t>
+          <t>A survey on the studies employing machine learning (ML) for enhancing artificial bee colony (ABC) optimization algorithm</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E20" t="n">
-        <v>40</v>
+        <v>32.74521824423737</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AI-Driven Multiobjective Scheduling Algorithm of Flood Control Materials Based on Pareto Artificial Bee Colony</t>
+          <t>Audio, Image, Video, and Weather Datasets for Continuous Electronic Beehive Monitoring</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>2021</v>
       </c>
       <c r="E21" t="n">
-        <v>40</v>
+        <v>32.74521824423737</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Acoustic Scene Classification and Visualization of Beehive Sounds Using Machine Learning Algorithms and Grad-CAM</t>
+          <t>Self-Powered Smart Beehive Monitoring and Control System (SBMaCS)</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>2021</v>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>32.74521824423737</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IoT Monitoring and Prediction Modeling of Honeybee Activity with Alarm</t>
+          <t>Artificial Neural Networks Hidden Unit and Weight Connection Optimization by Quasi-Refection-Based Learning Artificial Bee Colony Algorithm</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="E23" t="n">
-        <v>40</v>
+        <v>32.74521824423737</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>An Intelligent Monitoring System for Assessing Bee Hive Health</t>
+          <t>Real-time monitoring of deformed wing virus-infected bee foraging behavior following histone deacetylase inhibitor treatment</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>2021</v>
       </c>
       <c r="E24" t="n">
-        <v>40</v>
+        <v>32.74521824423737</v>
       </c>
     </row>
     <row r="25">
@@ -913,16 +913,16 @@
         <v>2022</v>
       </c>
       <c r="E25" t="n">
-        <v>40</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Edge-Based Detection of Varroosis in Beehives with IoT Devices with Embedded and TPU-Accelerated Machine Learning</t>
+          <t>Proposed Smart Monitoring System for the Detection of Bee Swarming</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -932,16 +932,16 @@
         <v>2021</v>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Proposed Smart Monitoring System for the Detection of Bee Swarming</t>
+          <t>AI-Driven Multiobjective Scheduling Algorithm of Flood Control Materials Based on Pareto Artificial Bee Colony</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -951,806 +951,808 @@
         <v>2021</v>
       </c>
       <c r="E27" t="n">
-        <v>40</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>On Video Analysis of Omnidirectional Bee Traffic: Counting Bee Motions with Motion Detection and Image Classification</t>
+          <t>Acoustic Scene Classification and Visualization of Beehive Sounds Using Machine Learning Algorithms and Grad-CAM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E28" t="n">
-        <v>37.84252416145537</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bumble Bee Workers Give Up Sleep to Care for Offspring that Are Not Their Own</t>
+          <t>An Intelligent Monitoring System for Assessing Bee Hive Health</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E29" t="n">
-        <v>37.84252416145537</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A New Approach of Hybrid Bee Colony Optimized Neural Computing to Estimate the Soil Compression Coefficient for a Housing Construction Project</t>
+          <t>Edge-Based Detection of Varroosis in Beehives with IoT Devices with Embedded and TPU-Accelerated Machine Learning</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E30" t="n">
-        <v>37.84252416145537</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Metabolomics-based biomarker discovery for bee health monitoring: A proof of concept study concerning nutritional stress in Bombus terrestris</t>
+          <t>AlexNet, AdaBoost and Artificial Bee Colony Based Hybrid Model for Electricity Theft Detection in Smart Grids</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E31" t="n">
-        <v>37.55827174530984</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The prediction of swarming in honeybee colonies using vibrational spectra</t>
+          <t>IoT Monitoring and Prediction Modeling of Honeybee Activity with Alarm</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="E32" t="n">
-        <v>37.2740193291643</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Artificial Bee Colony Programming Descriptor for Multi-Class Texture Classification</t>
+          <t>Transfer Function-Based Characterization of the Honey Bee Olfactory System: From Biology to Electronic Circuits</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E33" t="n">
-        <v>36.70551449687323</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Temperature Analysis in Power Transformer Windings Using Created Artificial Bee Algorithm and Computer Program</t>
+          <t>Honey bees increase their foraging performance and frequency of pollen trips through experience</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D34" t="n">
         <v>2019</v>
       </c>
       <c r="E34" t="n">
-        <v>35.85275724843661</v>
+        <v>29.41392839627268</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Deep Learning: Parameter Optimization Using Proposed Novel Hybrid Bees Bayesian Convolutional Neural Network</t>
+          <t>A New Approach of Hybrid Bee Colony Optimized Neural Computing to Estimate the Soil Compression Coefficient for a Housing Construction Project</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2019</v>
+      </c>
       <c r="E35" t="n">
-        <v>35</v>
+        <v>27.45218244237371</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Investigation of robustness of hybrid artificial neural network with artificial bee colony and firefly algorithm in predicting COVID-19 new cases: case study of Iran</t>
+          <t>Bumble Bee Workers Give Up Sleep to Care for Offspring that Are Not Their Own</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2019</v>
+      </c>
       <c r="E36" t="n">
-        <v>35</v>
+        <v>27.45218244237371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Parallelization of the Honeybee Search Algorithm for Object Tracking</t>
+          <t>On Video Analysis of Omnidirectional Bee Traffic: Counting Bee Motions with Motion Detection and Image Classification</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E37" t="n">
-        <v>33.36441159749858</v>
+        <v>27.45218244237371</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>378</v>
+        <v>169</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Summer weather conditions influence winter survival of honey bees (Apis mellifera) in the northeastern United States</t>
+          <t>Metabolomics-based biomarker discovery for bee health monitoring: A proof of concept study concerning nutritional stress in Bombus terrestris</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E38" t="n">
-        <v>32.2740193291643</v>
+        <v>27.20696419813634</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Color Image Quantization Based on the Artificial Bee Colony and Accelerated K-means Algorithms</t>
+          <t>Parallelization of the Honeybee Search Algorithm for Object Tracking</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
         <v>2020</v>
       </c>
       <c r="E39" t="n">
-        <v>32.22740193291643</v>
+        <v>27.17704757233938</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>An Efficient Framework for Remote Sensing Parallel Processing: Integrating the Artificial Bee Colony Algorithm and Multiagent Technology</t>
+          <t>Artificial Bee Colony Programming Descriptor for Multi-Class Texture Classification</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
         <v>2019</v>
       </c>
       <c r="E40" t="n">
-        <v>29.13700966458215</v>
+        <v>26.47130946542423</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Artificial bee colony algorithm: A component-wise analysis using diversity measurement</t>
+          <t>Color Image Quantization Based on the Artificial Bee Colony and Accelerated K-means Algorithms</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
         <v>2020</v>
       </c>
       <c r="E41" t="n">
-        <v>25.36441159749858</v>
+        <v>26.1961745953899</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>IoT-Based Bee Swarm Activity Acoustic Classification Using Deep Neural Networks</t>
+          <t>Temperature Analysis in Power Transformer Windings Using Created Artificial Bee Algorithm and Computer Program</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E42" t="n">
-        <v>25.19386014781126</v>
+        <v>25.73565473271211</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Precipitation forecast of the Wujiang River Basin based on artificial bee colony algorithm and backpropagation neural network</t>
+          <t>Deep Learning: Parameter Optimization Using Proposed Novel Hybrid Bees Bayesian Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>25.02330869812393</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>An Efficient Intrusion Detection Model Based on Hybridization of Artificial Bee Colony and Dragonfly Algorithms for Training Multilayer Perceptrons</t>
+          <t>Investigation of robustness of hybrid artificial neural network with artificial bee colony and firefly algorithm in predicting COVID-19 new cases: case study of Iran</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>24.85275724843661</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Markerless tracking of an entire honey bee colony</t>
+          <t>An Efficient Framework for Remote Sensing Parallel Processing: Integrating the Artificial Bee Colony Algorithm and Multiagent Technology</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E45" t="n">
-        <v>24.68220579874929</v>
+        <v>20.98087297694948</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A Novel Neural Network Training Algorithm for the Identification of Nonlinear Static Systems: Artificial Bee Colony Algorithm Based on Effective Scout Bee Stage</t>
+          <t>Artificial bee colony algorithm: A component-wise analysis using diversity measurement</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E46" t="n">
-        <v>24.51165434906196</v>
+        <v>20.67704757233938</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Artificial bee colony, genetic, back propagation and recurrent neural networks for developing intelligent system of turning process</t>
+          <t>IoT-Based Bee Swarm Activity Acoustic Classification Using Deep Neural Networks</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E47" t="n">
-        <v>24.51165434906196</v>
+        <v>20.52991662579696</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>An Improved Bees Algorithm for Training Deep Recurrent Networks for Sentiment Classification</t>
+          <t>Precipitation forecast of the Wujiang River Basin based on artificial bee colony algorithm and backpropagation neural network</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E48" t="n">
-        <v>24.34110289937464</v>
+        <v>20.38278567925454</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Honey Bee Colony Population Daily Loss Rate Forecasting and an Early Warning Method Using Temporal Convolutional Networks</t>
+          <t>An Efficient Intrusion Detection Model Based on Hybridization of Artificial Bee Colony and Dragonfly Algorithms for Training Multilayer Perceptrons</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E49" t="n">
-        <v>24.17055144968732</v>
+        <v>20.23565473271211</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DC model for SiC MOSFETs using artificial neural network optimized by artificial bee colony algorithm</t>
+          <t>Markerless tracking of an entire honey bee colony</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>2021</v>
       </c>
       <c r="E50" t="n">
-        <v>24</v>
+        <v>20.08852378616969</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Intrusion Detection for Network Based on Elite Clone Artificial Bee Colony and Back Propagation Neural Network</t>
+          <t>A Novel Neural Network Training Algorithm for the Identification of Nonlinear Static Systems: Artificial Bee Colony Algorithm Based on Effective Scout Bee Stage</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>2021</v>
       </c>
       <c r="E51" t="n">
-        <v>24</v>
+        <v>19.94139283962727</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Comparison of Feature Extraction Methods for Sound-Based Classification of Honey Bee Activity</t>
+          <t>Artificial bee colony, genetic, back propagation and recurrent neural networks for developing intelligent system of turning process</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E52" t="n">
-        <v>24</v>
+        <v>19.94139283962727</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Groundwater Level Prediction for the Arid Oasis of Northwest China Based on the Artificial Bee Colony Algorithm and a Back-propagation Neural Network with Double Hidden Layers</t>
+          <t>An Improved Bees Algorithm for Training Deep Recurrent Networks for Sentiment Classification</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E53" t="n">
-        <v>23.21716884593519</v>
+        <v>19.79426189308484</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>A Radar Signal Recognition System Based on Non-Negative Matrix Factorization Network and Improved Artificial Bee Colony Algorithm</t>
+          <t>Honey Bee Colony Population Daily Loss Rate Forecasting and an Early Warning Method Using Temporal Convolutional Networks</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E54" t="n">
-        <v>22.87606594656054</v>
+        <v>19.64713094654243</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>24</v>
+        <v>209</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Integrating Artificial Bee Colony Algorithm and BP Neural Network for Software Aging Prediction in IoT Environment</t>
+          <t>A Simplified Computational Model of Mushroom Body for Tethered Bees' Abdominal Swing Behavior Induced by Optic Flow</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E55" t="n">
-        <v>22.5349630471859</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Application of artificial bee colony algorithm and back propagation neural network in color evaluation of human-machine interaction interfaces</t>
+          <t>THE CURRENT STATE OF THE EUROPEAN DARK BEE SUBSPECIES Apis mellifera mellifera L. IN THE NORTH RANGE OF THE RUSSIAN FEDERATION</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>2020</v>
+      </c>
       <c r="E56" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Bioindicators and biomonitoring: honeybees and hive products as pollution impact assessment tools for the Mediterranean area</t>
+          <t>DC model for SiC MOSFETs using artificial neural network optimized by artificial bee colony algorithm</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E57" t="n">
-        <v>17.02330869812393</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>285</v>
+        <v>72</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Longitudinal monitoring of honey bee colonies reveals dynamic nature of virus abundance and indicates a negative impact of Lake Sinai virus 2 on colony health</t>
+          <t>Intrusion Detection for Network Based on Elite Clone Artificial Bee Colony and Back Propagation Neural Network</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E58" t="n">
-        <v>16.7959067652075</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Characterisation of bacteria isolated from the stingless bee, Heterotrigona itama, honey, bee bread and propolis</t>
+          <t>Comparison of Feature Extraction Methods for Sound-Based Classification of Honey Bee Activity</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E59" t="n">
-        <v>16.61512222853894</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>An Economic Approach to Assess the Annual Stock in Beekeeping Farms: The Honey Bee Colony Inventory Tool</t>
+          <t>Groundwater Level Prediction for the Arid Oasis of Northwest China Based on the Artificial Bee Colony Algorithm and a Back-propagation Neural Network with Double Hidden Layers</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D60" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E60" t="n">
-        <v>16.56850483229108</v>
+        <v>16.9127023050515</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Diagnosis of Varroosis Based on Bee Brood Samples Testing with Use of Semiconductor Gas Sensors</t>
+          <t>A Radar Signal Recognition System Based on Non-Negative Matrix Factorization Network and Improved Artificial Bee Colony Algorithm</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E61" t="n">
-        <v>16.34110289937464</v>
+        <v>16.61844041196665</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Are Honey Bees at Risk from Microplastics?</t>
+          <t>Integrating Artificial Bee Colony Algorithm and BP Neural Network for Software Aging Prediction in IoT Environment</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E62" t="n">
-        <v>16.11370096645821</v>
+        <v>16.3241785188818</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>27</v>
+        <v>317</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Energy-Efficient Wireless Weight Sensor for Remote Beehive Monitoring</t>
+          <t>Automated quantification of synaptic boutons reveals their 3D distribution in the honey bee mushroom body</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E63" t="n">
-        <v>16</v>
+        <v>15.14713094654242</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>THE CURRENT STATE OF THE EUROPEAN DARK BEE SUBSPECIES Apis mellifera mellifera L. IN THE NORTH RANGE OF THE RUSSIAN FEDERATION</t>
+          <t>Application of artificial bee colony algorithm and back propagation neural network in color evaluation of human-machine interaction interfaces</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
-      <c r="D64" t="n">
-        <v>2020</v>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RFID Technology Serving Honey Bee Research: A Comprehensive Description of a 32-Antenna System to Study Honey Bee and Queen Behavior</t>
+          <t>Bioindicators and biomonitoring: honeybees and hive products as pollution impact assessment tools for the Mediterranean area</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D65" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E65" t="n">
-        <v>16</v>
+        <v>13.88278567925454</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Overwintering honeybees maintained dynamic and stable intestinal bacteria</t>
+          <t>Longitudinal monitoring of honey bee colonies reveals dynamic nature of virus abundance and indicates a negative impact of Lake Sinai virus 2 on colony health</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E66" t="n">
-        <v>16</v>
+        <v>13.68661108386464</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Towards the development of an index for the holistic assessment of the health status of a honey bee colony</t>
+          <t>An Economic Approach to Assess the Annual Stock in Beekeeping Farms: The Honey Bee Colony Inventory Tool</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E67" t="n">
-        <v>14.56850483229107</v>
+        <v>13.49043648847474</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>On the performance of quick artificial bee colony algorithm for dynamic deployment of wireless sensor networks</t>
+          <t>Protocol for a systematic review and meta-analysis of human exposure to pesticide residues in honey and other bees' products</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E68" t="n">
-        <v>14.34110289937464</v>
+        <v>13.49043648847474</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Particle swarm optimization and artificial bee colony algorithm for clustering and mobile based software-defined wireless sensor networks</t>
+          <t>Diagnosis of Varroosis Based on Bee Brood Samples Testing with Use of Semiconductor Gas Sensors</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2020</v>
+      </c>
       <c r="E69" t="n">
-        <v>14</v>
+        <v>13.29426189308485</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>387</v>
+        <v>108</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Robust Queen Bee Assisted Genetic Algorithm (QBGA) Optimized Fractional Order PID (FOPID) Controller for Not Necessarily Minimum Phase Power Converters</t>
+          <t>Are Honey Bees at Risk from Microplastics?</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1760,235 +1762,233 @@
         <v>2021</v>
       </c>
       <c r="E70" t="n">
-        <v>12.11370096645821</v>
+        <v>13.09808729769495</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>195</v>
+        <v>387</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>An Energy Efficient Routing Protocol Based on Improved Artificial Bee Colony Algorithm for Wireless Sensor Networks</t>
+          <t>Robust Queen Bee Assisted Genetic Algorithm (QBGA) Optimized Fractional Order PID (FOPID) Controller for Not Necessarily Minimum Phase Power Converters</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E71" t="n">
-        <v>9.023308698123934</v>
+        <v>13.09808729769495</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Seamless clustering multi-hop routing protocol based on improved artificial bee colony algorithm</t>
+          <t>Composition and acquisition of the microbiome in solitary, ground-nesting alkali bees</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E72" t="n">
-        <v>8.113700966458214</v>
+        <v>13.09808729769495</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MS Location Estimation Based on the Artificial Bee Colony Algorithm</t>
+          <t>Energy-Efficient Wireless Weight Sensor for Remote Beehive Monitoring</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E73" t="n">
-        <v>8.056850483229107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Bee Colony Algorithm Optimization Based on Link Cost for Routing and Wavelength Assignment in Satellite Optical Networks</t>
+          <t>A potential probiotic Leuconostoc mesenteroides TBE-8 for honey bee</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E74" t="n">
-        <v>8.056850483229107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>43</v>
+        <v>216</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Week Ahead Electricity Price Forecasting Using Artificial Bee Colony Optimized Extreme Learning Machine with Wavelet Decomposition</t>
+          <t>Overwintering honeybees maintained dynamic and stable intestinal bacteria</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>2021</v>
       </c>
       <c r="E75" t="n">
-        <v>8.056850483229107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mobile Sink-Based Path Optimization Strategy in Wireless Sensor Networks Using Artificial Bee Colony Algorithm</t>
+          <t>RFID Technology Serving Honey Bee Research: A Comprehensive Description of a 32-Antenna System to Study Honey Bee and Queen Behavior</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E76" t="n">
-        <v>8.023308698123934</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Flow-mediated olfactory communication in honeybee swarms</t>
+          <t>Characterisation of bacteria isolated from the stingless bee, Heterotrigona itama, honey, bee bread and propolis</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D77" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>12.25600784698381</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Multi-UAV Optimal Mission Assignment and Path Planning for Disaster Rescue Using Adaptive Genetic Algorithm and Improved Artificial Bee Colony Method</t>
+          <t>Towards the development of an index for the holistic assessment of the health status of a honey bee colony</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="E78" t="n">
-        <v>8</v>
+        <v>10.49043648847474</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>311</v>
+        <v>58</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>The neuroethology of olfactory sex communication in the honeybee Apis mellifera L.</t>
+          <t>On the performance of quick artificial bee colony algorithm for dynamic deployment of wireless sensor networks</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E79" t="n">
-        <v>6.113700966458214</v>
+        <v>10.29426189308485</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TCDABCF: A Trust-Based Community Detection Using Artificial Bee Colony by Feature Fusion</t>
+          <t>Particle swarm optimization and artificial bee colony algorithm for clustering and mobile based software-defined wireless sensor networks</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>2021</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
-        <v>6.056850483229107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>462</v>
+        <v>43</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>The Green Photovoltaic Industry Installed Capacity Forecast in China: Based on Grey Relation Analysis, Improved Signal Decomposition Method, and Artificial Bee Colony Algorithm</t>
+          <t>Week Ahead Electricity Price Forecasting Using Artificial Bee Colony Optimized Extreme Learning Machine with Wavelet Decomposition</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E81" t="n">
-        <v>6.056850483229107</v>
+        <v>6.549043648847475</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>331</v>
+        <v>462</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sublethal pesticide exposure induces larval removal behavior in honeybees through chemical cues</t>
+          <t>The Green Photovoltaic Industry Installed Capacity Forecast in China: Based on Grey Relation Analysis, Improved Signal Decomposition Method, and Artificial Bee Colony Algorithm</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="E82" t="n">
-        <v>6</v>
+        <v>6.549043648847475</v>
       </c>
     </row>
   </sheetData>
